--- a/viconmatlab_starter/tm_subject_mat.xlsx
+++ b/viconmatlab_starter/tm_subject_mat.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/33ab2cc4ec646a75/Documents/GitHub/Treadmill/viconmatlab_starter/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="8_{F99EBC6A-9215-4249-937E-E08F80F01ABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0BE9BB3D-E70D-4C1F-9F65-280D317ABA3F}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="8_{F99EBC6A-9215-4249-937E-E08F80F01ABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1D348CB2-AB23-45D4-B6DF-B157CC787EDC}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{0A70FED9-0CF6-4957-8F33-7C20A6071266}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0A70FED9-0CF6-4957-8F33-7C20A6071266}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>subject</t>
   </si>
@@ -87,6 +87,9 @@
   </si>
   <si>
     <t>days btw</t>
+  </si>
+  <si>
+    <t>DXI</t>
   </si>
 </sst>
 </file>
@@ -438,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5457AC8-DAF8-4630-9609-AA564AE5C184}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -661,6 +664,11 @@
         <v>1</v>
       </c>
     </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
